--- a/paper/experiments.xlsx
+++ b/paper/experiments.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="217">
   <si>
     <t xml:space="preserve">antibody_id</t>
   </si>
@@ -392,49 +392,151 @@
     <t xml:space="preserve">soft-spook</t>
   </si>
   <si>
+    <t xml:space="preserve">QAERVRSGEELKQPADSVKISCKTSGNTFSSSHGEMNWVKHAPCQGREWLGYTLARSGYGTHYSPKFVGRTTITAGKTSSTTKMQLSSLMSEGSAVYRCARVSTTSCNGLPSYYPHGGADVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESVITQSPSSQPASPGELLTISCQASPINIVNKSYNHIACEYQQMPGQVSKLLTAGASIRPSVVPSRHSGSSSGTLYTLTISFIASILCSEDFAVYVCQNFCSLKACWGSVAGGGETKVEIKGQL</t>
+  </si>
+  <si>
     <t xml:space="preserve">creative-halftone</t>
   </si>
   <si>
+    <t xml:space="preserve">EAQLVFSGAELTQPGNSLAISAKSSEDSIYSVNYVVSWVREAPGQGHLIMGGIHPVPNTGTKYGQVFQGRVTITADNSTNTAYVKSTSFPSDDTAVYYCTRHTFCGGVNLGSGYLQTAFDYWGQGTAVIVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVMTQSPATLSASPGETATISCKGSNSISDNAGPNYLAWVYQQKPAPPPKLLIYSASNRANGDPEGFSGSGSAPGVSLTSSSVPKIVEEGDAAARYCQQTNVVPAKWETKTFVPGIKLEIAGQG</t>
+  </si>
+  <si>
     <t xml:space="preserve">brilliant-charge</t>
   </si>
   <si>
+    <t xml:space="preserve">TVQLRQSGSEAKRPVESLKVSAKASSVSFSSGAYYASDIRQAPGNTLEWMGAANAANSNDTAYNQSFQGRVTINRDKTITTAYLQLNNLTAEDTDCFYCATDASCDFITNGPYYFNDWADTWGQGTMVVVFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIVTTQSGSTMSVPLGEHATISCRGSESPVSSYESNLGAWSYQQKPAKAPKRLIYRYSNRPSGVPSRFSGSFSGTDVTLDISGWGSSLQSEDVAIRYAQQFSNLPSTFGLTTFGQGTKVVIKDCS</t>
+  </si>
+  <si>
     <t xml:space="preserve">strong-bear</t>
   </si>
   <si>
+    <t xml:space="preserve">EVQRQQSGAEVTKPGGSLKVSCKTSGYTFSSTTAAVSWVKQPHGTGLEWTGWLYHESGDGTNYAESVRGRVTVSYGKSTSTASLQMSSLRSEGTHVYYSARPGTGDWWGVGWGWGGNWFDSWAQGTTVTGSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAPLTQSGLSLSASSGNRATHTCRTSQAKVQNSIYIYIHWGYQQKPAKSPQLLIYGASSRGTGVPSRFSGSGSGTDYTLTISSNSLTLQPEDYATYFCQQSNVSPNNYESQTHEQGTKEEIQDQT</t>
+  </si>
+  <si>
     <t xml:space="preserve">minty-cylinder</t>
   </si>
   <si>
+    <t xml:space="preserve">QVGFVEWAGGVKIPSASKKLSCKASVGSVSSTNYGISAVRQAGAEGLKAVGWISGMGGTYTDYSESLKGVVTISAAKSTTTTFIELSSLRPSSTTVRYCAPPASQDRVGSGSPGGPGWFKPWGEGTLITVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLEMTQSPLSLAVSLGESISIPCRTSQSLVDSDKYNFPDLLYAQKPGISPRLLIYTGSSRATGSPDRISASGSGTDFTLTITKQGDGVEAERIATYYCQQPRNTPRRINSQAFAQSTKLEKKAKA</t>
+  </si>
+  <si>
     <t xml:space="preserve">bitter-folder</t>
   </si>
   <si>
+    <t xml:space="preserve">EVRLMESGAVVKQPGQSLKVSAKDSGYAFRNTSYSISWPRGAPGQGLEWMGYIYPNSGDGTNRSQSVQGLVTISTNKSISTASLQLSSLKAEDTPVYATARHDGYHWFAYTCHWMHGAADHWGQITLVTESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETVLTQSAATLSVTPGEGASLSCKALQSLVHNNGYNFIAAFYNQKPGQSPKRLIRGGANVGSGIPSRYNASGSGTDTSQTITSDHSALQSEGVQVYYCEQYTTTPKSPTSKTFPGGTKVEILPQV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdscoring_4.pdb </t>
+  </si>
+  <si>
     <t xml:space="preserve">contemporary-wine</t>
   </si>
   <si>
+    <t xml:space="preserve">KVERTQRGAEVKKPDKSLKISCAASGYSASDTSHYINWVQQAPGKALEWIGIIYPSSGDRTKYAEAFQGRVTITRDGSKNTAYARCNSVTPEGTAVRYCARHGSQTRFAIGSYWPVDQEGFWRQGTFVTVCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVLTQSPPSLSAPVGESATASARGSQSEVDADGYNYLQADYQQKPGQAGQLLIYGVSNRESDVPARLSNAGAGTGYTTTISSAAVWIQSADFGVYFCQQANNTPSGRVSTRFAGGAATLPKGKT</t>
+  </si>
+  <si>
     <t xml:space="preserve">quadratic-format</t>
   </si>
   <si>
+    <t xml:space="preserve">EVDTTQSLASAKMLGESVRISCKASGYTFTKPYYTYQWVKQTKAEILYWVGVTDPANSDVINYQPKEQGRVTLGVRKSTSTNWMRRRSLRSEDTNVYYCRRVRTYHYVNNGGGWVDNWFHNFGEGTMVTVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIVLTQSPASIALSTGERATISCRANHPFIHSDGSNYLDWVRQQKPGQSPTRHIYGASYHETDIPDWFSGSGTGTDFTLTIRRSTSVVEAEDTGVYYCQQFSVSPPDWEASNYGDGTRVEIPGVH</t>
+  </si>
+  <si>
     <t xml:space="preserve">avocado-bumper</t>
   </si>
   <si>
+    <t xml:space="preserve">EAERVESGAEVKKPGASTKISCKAAGYSFSSTSYWMHWVRQMPGEGLEWMGRIYPSKSCGSNRSMKCQGRVTLSTDTSTNTASLQLRSLTPSDTATYRAARQAFHGWVGIGSTWPDDWADVWAQMTLVTVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIVNTQSPGTLSVSPGERATITCKASESTIAGNSYPYIGVNYLKKPGQAPKFLIYSASNRISGIPSKFNESWSGHDFALTISNPPQIIQSFDFADYYCQHINSSPPRYQSLTFGAETKVEIKTQP</t>
+  </si>
+  <si>
     <t xml:space="preserve">cold-electricity</t>
   </si>
   <si>
+    <t xml:space="preserve">EVFLLQAGPFLTHTGSSLKVTCKNSGNSFTTGSYTIKAVRQSGGTATFWIGSIIPSNGYGTNTAKTIKGRATISADTSTNTAYMELSSLASEGSALYSCARDAQNSWVGRGWYYGLNGFGMAGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESVMTGSEASLSVCPGESATISCRTTQSLIYSDGTNYLHWTTQQKTGQSPKLCIYSHSKRASGVSGRTSGSGFRTDATLTISSHSYSTTAEDVSTYYDQQALNPPAHHGSSTYGQGTRLEIKNAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdscoring_9.pdb </t>
+  </si>
+  <si>
     <t xml:space="preserve">flat-gutter</t>
   </si>
   <si>
+    <t xml:space="preserve">EVDLNQSGAETKITGQSIKVSCKTSGVSFPEADYATPLTRQHHGKALEWMGNTNYGTGYTTNYGPKIQVRVTLNSGKSTSTAYLPKKSLKAEYTTIYYCVRDGHQTNVESTGQGQIGYFNYWGEGTLVTVSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIAMTGSGSTISVSPGERATISCRASQSTVDKSVSNYVHWVFQQLPATSTKRIINGSSNRESDVPSRTSGSKSGHDPTLTISRRSSDLEPEDVAVYYCQSYTSTPSELVSQTYGQATKAEITGQD</t>
+  </si>
+  <si>
     <t xml:space="preserve">symmetric-pad</t>
   </si>
   <si>
+    <t xml:space="preserve">QAQLVQSGAGVTKGAASVKLSCKTSGYSISSYSYGVSAVRQAPGQGPEWVGGISPMSGPYTHYAQSVQARLTLTVDKSTSTAYLELTASNPEDTATYYAARNARGTRVGVGPHYLLDWHDYWGAGTLVTVST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVMHQSPTTLSVNVYEPATISCKTSNTLANGDGSNYVVWYYQQKAGQSPKRLIAGISTRATGVEHKFSGNASGTDITLTISSTHTAVEPEDFAVHYDQQYRNWLKKLISPTFGGGTKGNRPSKV</t>
+  </si>
+  <si>
     <t xml:space="preserve">antique-structure</t>
   </si>
   <si>
+    <t xml:space="preserve">QAQLEQSGVEVVKPGSSVKVSSKTSGYWASTTSHWISWVRRSPAKGFEWMGGIQPGSGNYTNFNEKYQGRATITAGKSSNTAYTQLTSLTAEGTTTYYCARNNTHDTYGSGSSYPLDYFDVWGQATTITVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVVLTQSPGTTSLPPGERATLSIHASHHLVDSDGSTYVSWVYQEKSGQATRRTIYGASNRASGIVGRFSGSGSATGYTLTIRRADVSVESEQSAVFFAQQFSSTPQKWGSVTFGHVTRLEIKGSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">cream-callback</t>
   </si>
   <si>
+    <t xml:space="preserve">GNFLVESGAGATKPAPSLSVSCKVSGESFSSGSYGISWARQAGGPGLEWMGGIIPSSGEFINRGPSFQGKATITAGRSTTTAFFELSSLTSEDTAVYYCMRPRRFDFYGLTSYQPLGWHGYWGQGTLATVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVMTQSPPTLPVSVGESASISKKAAESVVSSDAYNYLNWAYEENPGQSPEMLIWAGTNRESGIPDRFSGSGSGTGFTLSISRVRSATEAGAVAVTYAMGSIAHPKPWGTKTFGQGTKVEIKGQD</t>
+  </si>
+  <si>
     <t xml:space="preserve">inventive-amarone</t>
   </si>
   <si>
+    <t xml:space="preserve">QAQIVQSGPGLVKTGTSVKVSAKTTGYNFSNKNYIVSWVREVPGRGLEAMGRIYGRDGDYTDRAEKVVGKVTISTDKDKNTWYLQMSSLKAEDTAVSYAARNDLVCYGGGGRYGLHNAYDNAGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVTTQTSGKLSISLGERVTINYKTSQSYVDGSGYNYTHHAYEQKDGKYPKLLIYGGSNRESGVPDRDSGSNAGTDVTLTISEVVMVVQSDDKINRYCSQSTDYTLYLDAVTFLQGTTYEIKYNP</t>
+  </si>
+  <si>
     <t xml:space="preserve">messy-discriminator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVRLVQAGPEVKQQKESAKLSCKTFGLSVSSTHYGNNWAHGAPGNGPEAIGHILPMNGYGIHYCPKVQGNSTISTDKTTSTAYMDLSSATSEDTAIYYCTVPATKLTYGTACGWGLSYFDPWAQGTLATVSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIVITQSPITLPVSPGEPASITCRASQSVLHSDGYNYLDWGVKQKPGQAPQHLIALASRRASGVGARFSGSGSGHDFTLKIRAYNAIVQSEGVGVYYCQAANQTPQGFGQQTFGGGTKLEIKNDP</t>
   </si>
   <si>
     <t xml:space="preserve">../08_mdscoring/mdscoring_2.pdb</t>
@@ -804,8 +906,8 @@
   </sheetPr>
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26:AI26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="42.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3586,80 +3688,1664 @@
       <c r="A27" s="8" t="s">
         <v>122</v>
       </c>
+      <c r="C27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2947.75</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2947.75</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>2746.535</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>2561.52</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>161.69635998789</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>6.168</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>6.168</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>3.34775</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>2.20260457564826</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>-259.979</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>-139.672</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>-209.613</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>-259.979</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>52.4781056378118</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>-168.655</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>-126.047</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>-143.55175</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>-168.655</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>20.6198750299317</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>-344.609</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>-239.973</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>-314.58925</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>-382.805</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <v>62.3966550191862</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <v>-122.827</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>-89.484</v>
+      </c>
+      <c r="AG27" s="0" t="n">
+        <v>-104.977</v>
+      </c>
+      <c r="AH27" s="0" t="n">
+        <v>-122.827</v>
+      </c>
+      <c r="AI27" s="0" t="n">
+        <v>13.9747903740986</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>2165.06</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>2238.41</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>2068.169</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>1918.77</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>104.966636122574</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>-1.223</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>8.124</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>-5.763</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>4.53490313506743</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>-228.915</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>-214.703</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>-255.5367</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>-296.038</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>28.3648827995699</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>-137.5</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>-116.153</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>-127.0607</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>-137.515</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>7.49184706568117</v>
+      </c>
+      <c r="Z28" s="1" t="n">
+        <v>-319.409</v>
+      </c>
+      <c r="AA28" s="1" t="n">
+        <v>-295.879</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>-334.554</v>
+      </c>
+      <c r="AC28" s="1" t="n">
+        <v>-378.868</v>
+      </c>
+      <c r="AD28" s="1" t="n">
+        <v>27.6237929851946</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <v>-90.494</v>
+      </c>
+      <c r="AF28" s="1" t="n">
+        <v>-64.987</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>-79.0173</v>
+      </c>
+      <c r="AH28" s="1" t="n">
+        <v>-90.494</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <v>7.68059814004671</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>2597.4</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>2597.4</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>2388.264</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>2112.29</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>200.651347192088</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>-19.264</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>-9.151</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>-15.5842</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>-19.949</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>5.63339122554079</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>-279.727</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>-140.349</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>-221.8364</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>-306.674</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>70.2653472758799</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>-173.004</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>-133.903</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <v>-151.9266</v>
+      </c>
+      <c r="X29" s="1" t="n">
+        <v>-173.004</v>
+      </c>
+      <c r="Y29" s="1" t="n">
+        <v>14.2348145333896</v>
+      </c>
+      <c r="Z29" s="1" t="n">
+        <v>-377.522</v>
+      </c>
+      <c r="AA29" s="1" t="n">
+        <v>-226.233</v>
+      </c>
+      <c r="AB29" s="1" t="n">
+        <v>-313.8114</v>
+      </c>
+      <c r="AC29" s="1" t="n">
+        <v>-391.604</v>
+      </c>
+      <c r="AD29" s="1" t="n">
+        <v>70.7941675549617</v>
+      </c>
+      <c r="AE29" s="1" t="n">
+        <v>-97.795</v>
+      </c>
+      <c r="AF29" s="1" t="n">
+        <v>-84.931</v>
+      </c>
+      <c r="AG29" s="1" t="n">
+        <v>-91.9752</v>
+      </c>
+      <c r="AH29" s="1" t="n">
+        <v>-97.795</v>
+      </c>
+      <c r="AI29" s="1" t="n">
+        <v>6.18109975651583</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>2134.49</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>2195.44</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>2111.175</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>2021.6</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>58.2004318712499</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>5.699</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>5.805</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>2.4605</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>-1.875</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>2.92333301216266</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>-94.162</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>-50.318</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>-86.9265</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>-125.955</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>26.6301319317047</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>-102.103</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>-84.843</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>-93.9208333333333</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>-102.307</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>7.71324376424515</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>-183.131</v>
+      </c>
+      <c r="AA30" s="1" t="n">
+        <v>-123.223</v>
+      </c>
+      <c r="AB30" s="1" t="n">
+        <v>-165.922333333333</v>
+      </c>
+      <c r="AC30" s="1" t="n">
+        <v>-203.169</v>
+      </c>
+      <c r="AD30" s="1" t="n">
+        <v>29.9198393957365</v>
+      </c>
+      <c r="AE30" s="1" t="n">
+        <v>-88.97</v>
+      </c>
+      <c r="AF30" s="1" t="n">
+        <v>-72.905</v>
+      </c>
+      <c r="AG30" s="1" t="n">
+        <v>-78.996</v>
+      </c>
+      <c r="AH30" s="1" t="n">
+        <v>-88.97</v>
+      </c>
+      <c r="AI30" s="1" t="n">
+        <v>6.06360536314823</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>2055.88</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>2093.58</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>1986.72571428571</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1804.28</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>109.646010241617</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>2.614</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>10.833</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>3.40114285714286</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>-2.378</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>4.64932925013818</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>-127.158</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>-46.058</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>-112.701571428571</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>-158.43</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>42.3416522739219</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>-107.026</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>-89.785</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>-97.817</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>-109.742</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <v>8.72480402836266</v>
+      </c>
+      <c r="Z31" s="1" t="n">
+        <v>-211.367</v>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>-124.253</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>-191.379428571429</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>-239.14</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>43.5500006194303</v>
+      </c>
+      <c r="AE31" s="1" t="n">
+        <v>-84.209</v>
+      </c>
+      <c r="AF31" s="1" t="n">
+        <v>-72.931</v>
+      </c>
+      <c r="AG31" s="1" t="n">
+        <v>-78.6778571428571</v>
+      </c>
+      <c r="AH31" s="1" t="n">
+        <v>-84.209</v>
+      </c>
+      <c r="AI31" s="1" t="n">
+        <v>4.09615235835499</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>127</v>
+        <v>137</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2972.8</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2972.8</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>2672.14</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>2301.35</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>238.454682319304</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>-16.597</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>-10.248</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>-13.8351666666667</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>-17.486</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>3.1560526875619</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>-170.512</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>-150.512</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>-201.389333333333</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>-312.679</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>58.2366785751614</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>-166.691</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>-135.902</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>-157.048333333333</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>-166.691</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>11.3541911498207</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>-286.504</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>-240.832</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>-304.324666666667</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <v>-402.887</v>
+      </c>
+      <c r="AD32" s="0" t="n">
+        <v>55.2616981775503</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>-115.992</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>-90.208</v>
+      </c>
+      <c r="AG32" s="0" t="n">
+        <v>-102.9355</v>
+      </c>
+      <c r="AH32" s="0" t="n">
+        <v>-115.992</v>
+      </c>
+      <c r="AI32" s="0" t="n">
+        <v>11.0662837077313</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>2558.88</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>2558.88</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>2454.09333333333</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>2352.54</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>103.207992584554</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>6.075</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>9.073</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>6.45933333333333</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>2.44426805676737</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>-154.667</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>-154.667</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>-175.101333333333</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>-190.085</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>18.3273294926821</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>-128.148</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>-124.138</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>-128.581</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>-133.457</v>
+      </c>
+      <c r="Y33" s="1" t="n">
+        <v>4.67456489953877</v>
+      </c>
+      <c r="Z33" s="1" t="n">
+        <v>-257.957</v>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>-257.957</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>-275.121666666667</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <v>-285.279</v>
+      </c>
+      <c r="AD33" s="1" t="n">
+        <v>14.9482427506826</v>
+      </c>
+      <c r="AE33" s="1" t="n">
+        <v>-103.29</v>
+      </c>
+      <c r="AF33" s="1" t="n">
+        <v>-95.194</v>
+      </c>
+      <c r="AG33" s="1" t="n">
+        <v>-100.020333333333</v>
+      </c>
+      <c r="AH33" s="1" t="n">
+        <v>-103.29</v>
+      </c>
+      <c r="AI33" s="1" t="n">
+        <v>4.26658087153324</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>129</v>
+        <v>144</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>2465.97</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>2466.54</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>2336.51714285714</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>2161.08</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>132.242268168979</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>-9.608</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>-8.18642857142857</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>-16.823</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>5.82012808728304</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>-189.958</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>-189.958</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>-240.888857142857</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>-306.536</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>48.3375455570118</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>-155.547</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>-125.514</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>-149.063714285714</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>-163.161</v>
+      </c>
+      <c r="Y34" s="1" t="n">
+        <v>13.7435126358376</v>
+      </c>
+      <c r="Z34" s="1" t="n">
+        <v>-297.905</v>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>-282.639</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>-333.588428571429</v>
+      </c>
+      <c r="AC34" s="1" t="n">
+        <v>-398.647</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>48.8390298492819</v>
+      </c>
+      <c r="AE34" s="1" t="n">
+        <v>-107.947</v>
+      </c>
+      <c r="AF34" s="1" t="n">
+        <v>-83.285</v>
+      </c>
+      <c r="AG34" s="1" t="n">
+        <v>-92.6995714285714</v>
+      </c>
+      <c r="AH34" s="1" t="n">
+        <v>-107.947</v>
+      </c>
+      <c r="AI34" s="1" t="n">
+        <v>8.82179879346502</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>130</v>
+        <v>147</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1924.35</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>2166.64</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>1908.874</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>1746.85</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>115.333412446986</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>15.122</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>9.5727</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>4.38195339622259</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>-239.7</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>-187.827</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>-244.9337</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>-296.043</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>40.381986162837</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>-124.256</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>-78.556</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>-108.7235</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>-127.007</v>
+      </c>
+      <c r="Y35" s="1" t="n">
+        <v>15.0377942771612</v>
+      </c>
+      <c r="Z35" s="1" t="n">
+        <v>-318.955</v>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>-242.354</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>-314.243</v>
+      </c>
+      <c r="AC35" s="1" t="n">
+        <v>-371.323</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>43.6468493733766</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>-79.255</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>-54.527</v>
+      </c>
+      <c r="AG35" s="1" t="n">
+        <v>-69.3094</v>
+      </c>
+      <c r="AH35" s="1" t="n">
+        <v>-79.255</v>
+      </c>
+      <c r="AI35" s="1" t="n">
+        <v>8.22115157113379</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>131</v>
+        <v>150</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>2176.13</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>2286.45</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>2155.46285714286</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>2035.63</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>91.919932679531</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>11.848</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>17.464</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>12.7904285714286</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>8.548</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>3.56169776263806</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>-340.312</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>-213.538</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>-288.735714285714</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>-387.396</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>59.6384516530353</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>-149.134</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>-108.784</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>-126.018285714286</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>-149.134</v>
+      </c>
+      <c r="Y36" s="1" t="n">
+        <v>13.6893819402032</v>
+      </c>
+      <c r="Z36" s="1" t="n">
+        <v>-433.231</v>
+      </c>
+      <c r="AA36" s="1" t="n">
+        <v>-290.335</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>-369.797285714286</v>
+      </c>
+      <c r="AC36" s="1" t="n">
+        <v>-457.894</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>60.0231475841176</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <v>-92.919</v>
+      </c>
+      <c r="AF36" s="1" t="n">
+        <v>-69.428</v>
+      </c>
+      <c r="AG36" s="1" t="n">
+        <v>-81.0614285714286</v>
+      </c>
+      <c r="AH36" s="1" t="n">
+        <v>-92.919</v>
+      </c>
+      <c r="AI36" s="1" t="n">
+        <v>9.53634096246464</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>132</v>
+        <v>154</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>1995.38</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>2057.85</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>1939.21166666667</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>1786.39</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>98.3543226130233</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>-0.179</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>7.998</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>2.61633333333333</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>-2.626</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>3.96858184578152</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>-163.896</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>-129.508</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>-184.652333333333</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>-300.477</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>60.4956062889419</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>-115.78</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>-87.227</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>-108.1105</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>-123.735</v>
+      </c>
+      <c r="Y37" s="1" t="n">
+        <v>13.8981104866813</v>
+      </c>
+      <c r="Z37" s="1" t="n">
+        <v>-246.717</v>
+      </c>
+      <c r="AA37" s="1" t="n">
+        <v>-195.769</v>
+      </c>
+      <c r="AB37" s="1" t="n">
+        <v>-258.4485</v>
+      </c>
+      <c r="AC37" s="1" t="n">
+        <v>-372.115</v>
+      </c>
+      <c r="AD37" s="1" t="n">
+        <v>61.0737453862132</v>
+      </c>
+      <c r="AE37" s="1" t="n">
+        <v>-82.822</v>
+      </c>
+      <c r="AF37" s="1" t="n">
+        <v>-66.261</v>
+      </c>
+      <c r="AG37" s="1" t="n">
+        <v>-73.7963333333333</v>
+      </c>
+      <c r="AH37" s="1" t="n">
+        <v>-82.822</v>
+      </c>
+      <c r="AI37" s="1" t="n">
+        <v>6.17512729153551</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>133</v>
+        <v>157</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>2224.5</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>2224.5</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>1988.91</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>1868.1</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>160.718533675076</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>-21.331</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>-11.229</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>-16.47125</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>-21.331</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>4.13008509799334</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>-145.735</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>-103.425</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>-118.303</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>-145.735</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>18.753664299722</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>-141.4</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <v>-114.889</v>
+      </c>
+      <c r="W38" s="1" t="n">
+        <v>-123.68675</v>
+      </c>
+      <c r="X38" s="1" t="n">
+        <v>-141.4</v>
+      </c>
+      <c r="Y38" s="1" t="n">
+        <v>11.9944607041473</v>
+      </c>
+      <c r="Z38" s="1" t="n">
+        <v>-236.658</v>
+      </c>
+      <c r="AA38" s="1" t="n">
+        <v>-184.741</v>
+      </c>
+      <c r="AB38" s="1" t="n">
+        <v>-201.858</v>
+      </c>
+      <c r="AC38" s="1" t="n">
+        <v>-236.658</v>
+      </c>
+      <c r="AD38" s="1" t="n">
+        <v>23.7878715455306</v>
+      </c>
+      <c r="AE38" s="1" t="n">
+        <v>-90.922</v>
+      </c>
+      <c r="AF38" s="1" t="n">
+        <v>-75.575</v>
+      </c>
+      <c r="AG38" s="1" t="n">
+        <v>-83.555</v>
+      </c>
+      <c r="AH38" s="1" t="n">
+        <v>-90.922</v>
+      </c>
+      <c r="AI38" s="1" t="n">
+        <v>6.61060042658759</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>134</v>
+        <v>160</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>1953.62</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>1953.62</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>1804.8275</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>1660.63</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>128.806251498132</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>6.004</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>12.942</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>8.7035</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>5.656</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>3.50309439400844</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>-227.464</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>-140.103</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>-176.707</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>-227.464</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>36.9334192929204</v>
+      </c>
+      <c r="U39" s="1" t="n">
+        <v>-107.627</v>
+      </c>
+      <c r="V39" s="1" t="n">
+        <v>-76.815</v>
+      </c>
+      <c r="W39" s="1" t="n">
+        <v>-86.6545</v>
+      </c>
+      <c r="X39" s="1" t="n">
+        <v>-107.627</v>
+      </c>
+      <c r="Y39" s="1" t="n">
+        <v>14.5090274541978</v>
+      </c>
+      <c r="Z39" s="1" t="n">
+        <v>-295.602</v>
+      </c>
+      <c r="AA39" s="1" t="n">
+        <v>-201.84</v>
+      </c>
+      <c r="AB39" s="1" t="n">
+        <v>-236.7235</v>
+      </c>
+      <c r="AC39" s="1" t="n">
+        <v>-295.602</v>
+      </c>
+      <c r="AD39" s="1" t="n">
+        <v>41.0747727727535</v>
+      </c>
+      <c r="AE39" s="1" t="n">
+        <v>-68.138</v>
+      </c>
+      <c r="AF39" s="1" t="n">
+        <v>-54.55</v>
+      </c>
+      <c r="AG39" s="1" t="n">
+        <v>-60.01675</v>
+      </c>
+      <c r="AH39" s="1" t="n">
+        <v>-68.138</v>
+      </c>
+      <c r="AI39" s="1" t="n">
+        <v>6.26997487368703</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>135</v>
+        <v>163</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>1848.79</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>1898.04</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>1821.734</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>1730.3</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>62.9723699728699</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>-7.164</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>-3.284</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>-9.2748</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>-16.531</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>4.83105461571281</v>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>-188.846</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>-188.846</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>-213.7436</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>-246.517</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>26.6885541627867</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>-119.502</v>
+      </c>
+      <c r="V40" s="1" t="n">
+        <v>-118.826</v>
+      </c>
+      <c r="W40" s="1" t="n">
+        <v>-121.7338</v>
+      </c>
+      <c r="X40" s="1" t="n">
+        <v>-128.64</v>
+      </c>
+      <c r="Y40" s="1" t="n">
+        <v>3.96929240545465</v>
+      </c>
+      <c r="Z40" s="1" t="n">
+        <v>-263.415</v>
+      </c>
+      <c r="AA40" s="1" t="n">
+        <v>-263.415</v>
+      </c>
+      <c r="AB40" s="1" t="n">
+        <v>-283.454</v>
+      </c>
+      <c r="AC40" s="1" t="n">
+        <v>-314.375</v>
+      </c>
+      <c r="AD40" s="1" t="n">
+        <v>23.3854139475871</v>
+      </c>
+      <c r="AE40" s="1" t="n">
+        <v>-74.569</v>
+      </c>
+      <c r="AF40" s="1" t="n">
+        <v>-63.9</v>
+      </c>
+      <c r="AG40" s="1" t="n">
+        <v>-69.7104</v>
+      </c>
+      <c r="AH40" s="1" t="n">
+        <v>-74.569</v>
+      </c>
+      <c r="AI40" s="1" t="n">
+        <v>4.04576560121814</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>136</v>
+        <v>166</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>3395.78</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>3395.78</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>3134.99714285714</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>2654.04</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>258.07148755815</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>12.3752857142857</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>4.984</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>7.31572955382865</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>-425.217</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>-262.188</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>-344.764428571429</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>-425.217</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>62.991515542061</v>
+      </c>
+      <c r="U41" s="1" t="n">
+        <v>-192.756</v>
+      </c>
+      <c r="V41" s="1" t="n">
+        <v>-154.9</v>
+      </c>
+      <c r="W41" s="1" t="n">
+        <v>-173.533285714286</v>
+      </c>
+      <c r="X41" s="1" t="n">
+        <v>-192.756</v>
+      </c>
+      <c r="Y41" s="1" t="n">
+        <v>12.0354221600835</v>
+      </c>
+      <c r="Z41" s="1" t="n">
+        <v>-554.669</v>
+      </c>
+      <c r="AA41" s="1" t="n">
+        <v>-390.748</v>
+      </c>
+      <c r="AB41" s="1" t="n">
+        <v>-461.72</v>
+      </c>
+      <c r="AC41" s="1" t="n">
+        <v>-554.669</v>
+      </c>
+      <c r="AD41" s="1" t="n">
+        <v>57.997873277101</v>
+      </c>
+      <c r="AE41" s="1" t="n">
+        <v>-129.453</v>
+      </c>
+      <c r="AF41" s="1" t="n">
+        <v>-91.57</v>
+      </c>
+      <c r="AG41" s="1" t="n">
+        <v>-116.955857142857</v>
+      </c>
+      <c r="AH41" s="1" t="n">
+        <v>-129.453</v>
+      </c>
+      <c r="AI41" s="1" t="n">
+        <v>14.0930733036786</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>137</v>
+        <v>169</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>2716.76</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>2716.76</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>2499.6</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>2389.42</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>188.072882681157</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>-2.831</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>5.908</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>-2.831</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>4.36965868232291</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>-292.202</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>-292.202</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>-329.899333333333</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>-354.037</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>33.0724995477108</v>
+      </c>
+      <c r="U42" s="1" t="n">
+        <v>-148</v>
+      </c>
+      <c r="V42" s="1" t="n">
+        <v>-136.787</v>
+      </c>
+      <c r="W42" s="1" t="n">
+        <v>-142.455333333333</v>
+      </c>
+      <c r="X42" s="1" t="n">
+        <v>-148</v>
+      </c>
+      <c r="Y42" s="1" t="n">
+        <v>5.60752283395559</v>
+      </c>
+      <c r="Z42" s="1" t="n">
+        <v>-378.931</v>
+      </c>
+      <c r="AA42" s="1" t="n">
+        <v>-378.931</v>
+      </c>
+      <c r="AB42" s="1" t="n">
+        <v>-407.934666666667</v>
+      </c>
+      <c r="AC42" s="1" t="n">
+        <v>-427.411</v>
+      </c>
+      <c r="AD42" s="1" t="n">
+        <v>25.6057642013148</v>
+      </c>
+      <c r="AE42" s="1" t="n">
+        <v>-86.729</v>
+      </c>
+      <c r="AF42" s="1" t="n">
+        <v>-73.374</v>
+      </c>
+      <c r="AG42" s="1" t="n">
+        <v>-78.0353333333333</v>
+      </c>
+      <c r="AH42" s="1" t="n">
+        <v>-86.729</v>
+      </c>
+      <c r="AI42" s="1" t="n">
+        <v>7.53550199610705</v>
       </c>
     </row>
   </sheetData>
@@ -3681,7 +5367,7 @@
   <dimension ref="A1:AJ66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="1" sqref="F26:AI26 A39"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3830,7 +5516,7 @@
         <v>73</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">IF($B$17=$F$2,Q17,"")&amp;IF($B$18=F2,Q18,"")&amp;IF($B$19=F2,Q19,"")&amp;IF($B$20=F2,Q20,"")</f>
@@ -3958,7 +5644,7 @@
         <v>76</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">IF($B$26=$F$2,Q26,"")&amp;IF($B$27=F3,Q27,"")&amp;IF($B$28=F3,Q28,"")&amp;IF($B$29=F3,Q29,"")&amp;IF($B$30=F3,Q30,"")&amp;IF($B$31=F3,Q31,"")&amp;IF($B$32=F3,Q32,"")&amp;IF($B$33=F3,Q33,"")&amp;IF($B$34=F3,Q34,"")</f>
@@ -3970,99 +5656,99 @@
         <v>73</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>1</v>
@@ -4148,10 +5834,10 @@
     </row>
     <row r="18" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>3</v>
@@ -4237,10 +5923,10 @@
     </row>
     <row r="19" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>2</v>
@@ -4326,10 +6012,10 @@
     </row>
     <row r="20" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>4</v>
@@ -4418,99 +6104,99 @@
         <v>77</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="AB25" s="10" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="AC25" s="10" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="AD25" s="10" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="71.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="8" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D26" s="8" t="n">
         <v>1</v>
@@ -4596,10 +6282,10 @@
     </row>
     <row r="27" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="8" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D27" s="8" t="n">
         <v>2</v>
@@ -4685,10 +6371,10 @@
     </row>
     <row r="28" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="8" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D28" s="8" t="n">
         <v>3</v>
@@ -4774,10 +6460,10 @@
     </row>
     <row r="29" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="8" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D29" s="8" t="n">
         <v>4</v>
@@ -4863,10 +6549,10 @@
     </row>
     <row r="30" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="8" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D30" s="8" t="n">
         <v>5</v>
@@ -4952,10 +6638,10 @@
     </row>
     <row r="31" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="8" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D31" s="8" t="n">
         <v>6</v>
@@ -5041,10 +6727,10 @@
     </row>
     <row r="32" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="8" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D32" s="8" t="n">
         <v>7</v>
@@ -5130,10 +6816,10 @@
     </row>
     <row r="33" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D33" s="8" t="n">
         <v>8</v>
@@ -5219,10 +6905,10 @@
     </row>
     <row r="34" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="8" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D34" s="8" t="n">
         <v>9</v>
@@ -5308,7 +6994,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E35" s="0" t="n">
         <f aca="false">MAX(E26:E34)</f>
@@ -5333,7 +7019,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E36" s="0" t="n">
         <f aca="false">AVERAGE(E26:E34)</f>
@@ -5358,7 +7044,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E37" s="0" t="n">
         <f aca="false">MIN(E26:E34)</f>
@@ -5383,7 +7069,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">STDEV(E26:E34)</f>
@@ -5408,7 +7094,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E39" s="0" t="n">
         <f aca="false">E26</f>
@@ -5436,99 +7122,99 @@
         <v>80</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="X44" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="Y44" s="10" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="AC44" s="10" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="AD44" s="10" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="8" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D45" s="8" t="n">
         <v>1</v>
@@ -5614,10 +7300,10 @@
     </row>
     <row r="46" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="8" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D46" s="8" t="n">
         <v>2</v>
@@ -5703,10 +7389,10 @@
     </row>
     <row r="47" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D47" s="8" t="n">
         <v>3</v>
@@ -5792,10 +7478,10 @@
     </row>
     <row r="48" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D48" s="8" t="n">
         <v>4</v>
@@ -5881,10 +7567,10 @@
     </row>
     <row r="49" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="8" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D49" s="8" t="n">
         <v>5</v>
@@ -5970,10 +7656,10 @@
     </row>
     <row r="50" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="8" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D50" s="8" t="n">
         <v>6</v>
@@ -6059,10 +7745,10 @@
     </row>
     <row r="51" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D51" s="8" t="n">
         <v>7</v>
@@ -6148,10 +7834,10 @@
     </row>
     <row r="52" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D52" s="8" t="n">
         <v>8</v>
@@ -6237,10 +7923,10 @@
     </row>
     <row r="53" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D53" s="8" t="n">
         <v>9</v>
@@ -6326,10 +8012,10 @@
     </row>
     <row r="54" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D54" s="8" t="n">
         <v>10</v>
@@ -6415,7 +8101,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E55" s="0" t="n">
         <f aca="false">MAX(E45:E54)</f>
@@ -6440,7 +8126,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E56" s="0" t="n">
         <f aca="false">AVERAGE(E45:E54)</f>
@@ -6465,7 +8151,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E57" s="0" t="n">
         <f aca="false">MIN(E45:E54)</f>
@@ -6490,7 +8176,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="E58" s="0" t="n">
         <f aca="false">STDEV(E45:E54)</f>
@@ -6515,7 +8201,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E59" s="0" t="n">
         <f aca="false">E45</f>

--- a/paper/experiments.xlsx
+++ b/paper/experiments.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Frankies\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3EB505-AC14-4DC6-ABDB-94C2F5480EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DF05D3-B298-4C0F-A10E-86D83AD0C9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40890" yWindow="345" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HA1-docking" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Fv Sequence Table" sheetId="3" r:id="rId3"/>
+    <sheet name="FASTA Lines" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="223">
   <si>
     <t>antibody_id</t>
   </si>
@@ -701,6 +702,12 @@
   </si>
   <si>
     <t>Light Chain</t>
+  </si>
+  <si>
+    <t>H_fasta</t>
+  </si>
+  <si>
+    <t>L_fasta</t>
   </si>
 </sst>
 </file>
@@ -8624,8 +8631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D452990C-803A-4170-918E-806E74BE4725}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9069,5 +9076,706 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50563E11-02AC-4965-9C3A-8D0D95E4E362}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="69.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5">
+      <c r="A2" s="1" t="str">
+        <f>'HA1-docking'!A13</f>
+        <v>kinetic-template</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <f>'HA1-docking'!C13</f>
+        <v>EVQLARSGAEPTMPGETVKLSCKTSGYNASDTSFYIGAARQTGGKGLEWMGHISPTNGNPIYYSEKIQARLTLTADTTTETTYIQLLAFKSEDSAMFYAARHRTGHYYGYGSYWPLNGGDIWGGGTLVTVSA</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>'HA1-docking'!D13</f>
+        <v>ESVLTQSPGSLIISVGERATISCKASQDLVNDTGHSFPHWRYLGKPGTAPKLLGYGASNRASGAPGRFNGSGSGTDFSLTISRTASELKPKDVATYYCQQYNATPPTYRSQTYGGGTRAEIKSQP</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT("&gt;",$A2,"~",B2)</f>
+        <v>&gt;kinetic-template~EVQLARSGAEPTMPGETVKLSCKTSGYNASDTSFYIGAARQTGGKGLEWMGHISPTNGNPIYYSEKIQARLTLTADTTTETTYIQLLAFKSEDSAMFYAARHRTGHYYGYGSYWPLNGGDIWGGGTLVTVSA</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>_xlfn.CONCAT("&gt;",$A2,"~",C2)</f>
+        <v>&gt;kinetic-template~ESVLTQSPGSLIISVGERATISCKASQDLVNDTGHSFPHWRYLGKPGTAPKLLGYGASNRASGAPGRFNGSGSGTDFSLTISRTASELKPKDVATYYCQQYNATPPTYRSQTYGGGTRAEIKSQP</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="47.25">
+      <c r="A3" s="1" t="str">
+        <f>'HA1-docking'!A14</f>
+        <v>partial-lagoon</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>'HA1-docking'!C14</f>
+        <v>QVGLVQSGPEVKTPGESVKISCTAGGYSFSSGLYWIDWVRERHGQGLEWMGMIHPSTSENTKYNPSFQSRVTISVNNSTNTAKEELSSLKAEDTATYLAARSAAVDVYTRGAYGKADRFEAWGQGALATVSS</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f>'HA1-docking'!D14</f>
+        <v>ELVLTQSPLSTSVSPGERATLSCRASQSLVYGNGYNNLAAVTRQMPAEATRLLISGGSTRATGVGSRLSGSGSGTDYTLTINSQTKQLQSEDFAAYYAMRYNNWPTRLIKQTFGGGTKLEIKDFP</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D31" si="0">_xlfn.CONCAT("&gt;",$A3,"~",B3)</f>
+        <v>&gt;partial-lagoon~QVGLVQSGPEVKTPGESVKISCTAGGYSFSSGLYWIDWVRERHGQGLEWMGMIHPSTSENTKYNPSFQSRVTISVNNSTNTAKEELSSLKAEDTATYLAARSAAVDVYTRGAYGKADRFEAWGQGALATVSS</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E31" si="1">_xlfn.CONCAT("&gt;",$A3,"~",C3)</f>
+        <v>&gt;partial-lagoon~ELVLTQSPLSTSVSPGERATLSCRASQSLVYGNGYNNLAAVTRQMPAEATRLLISGGSTRATGVGSRLSGSGSGTDYTLTINSQTKQLQSEDFAAYYAMRYNNWPTRLIKQTFGGGTKLEIKDFP</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5">
+      <c r="A4" s="1" t="str">
+        <f>'HA1-docking'!A15</f>
+        <v>glowing-avocet</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f>'HA1-docking'!C15</f>
+        <v>QARLVESGAEVTKTGQSTKVSAKMSANTYSSADYTVSAVHQYPGKALFWIGHIYYPNGYYRDNAGSFQGRVTISTDASKSTTYLTLSSLKSEATAIYRCQYRRRYYKVGVSSYVPLDWYDNLGQGTLVTVSS</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>'HA1-docking'!D15</f>
+        <v>DVVMTQSPESLAVNPGERISISCKGSQSLIASDGQNYVHWRYKAKPGQSPKILAYSASNRATGVPARISGSGPGTGFTLAISSISNAIQAEGLTTNRCQRELETAIVRSFRPFAGGTVLEIKALK</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;glowing-avocet~QARLVESGAEVTKTGQSTKVSAKMSANTYSSADYTVSAVHQYPGKALFWIGHIYYPNGYYRDNAGSFQGRVTISTDASKSTTYLTLSSLKSEATAIYRCQYRRRYYKVGVSSYVPLDWYDNLGQGTLVTVSS</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;glowing-avocet~DVVMTQSPESLAVNPGERISISCKGSQSLIASDGQNYVHWRYKAKPGQSPKILAYSASNRATGVPARISGSGPGTGFTLAISSISNAIQAEGLTTNRCQRELETAIVRSFRPFAGGTVLEIKALK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.5">
+      <c r="A5" s="1" t="str">
+        <f>'HA1-docking'!A16</f>
+        <v>approximate-entrepreneur</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f>'HA1-docking'!C16</f>
+        <v>EVQLLQSGAGAKKPGATVTISCVVSGYSYSSYYSGIDKVRQRPGHGKDCVGGIYPRSGYYTHYTEKFQGRVTYPSGKQTNNAYLQLNSVTTEDTAVYYCARPGLESFYGVGVNWSHNNSMSIGQGTLVTVSE</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>'HA1-docking'!D16</f>
+        <v>GIRITQSRASLSVSAGEPASIQARVSQSLIKGDISNYLEYYYQRKPGQPPKLFIYSASTRATGVPARLPGSGSGTDFTLTISSRDGFVGSEDFGIYYCQRVENTPPQLGQPTFDQGTKLEIKGYK</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;approximate-entrepreneur~EVQLLQSGAGAKKPGATVTISCVVSGYSYSSYYSGIDKVRQRPGHGKDCVGGIYPRSGYYTHYTEKFQGRVTYPSGKQTNNAYLQLNSVTTEDTAVYYCARPGLESFYGVGVNWSHNNSMSIGQGTLVTVSE</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;approximate-entrepreneur~GIRITQSRASLSVSAGEPASIQARVSQSLIKGDISNYLEYYYQRKPGQPPKLFIYSASTRATGVPARLPGSGSGTDFTLTISSRDGFVGSEDFGIYYCQRVENTPPQLGQPTFDQGTKLEIKGYK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.5">
+      <c r="A6" s="1" t="str">
+        <f>'HA1-docking'!A17</f>
+        <v>recursive-basin</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f>'HA1-docking'!C17</f>
+        <v>EVQLVEIGPEDKKPGTTLKLSCVPSGVSFHSTNYAVSGVKQSPGQGPEAMGNTYPSSGCDTDYCQKFQVRATITTRRSTSTVYLELNSLKPDDPAVYYCARVSHNTEKTPGSYFHPGDEELWGQGTLVTALS</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>'HA1-docking'!D17</f>
+        <v>DIVLTDSPSGLSASTGERPTISKRVSNSLSDFDRSTTLAWFFQARPGRSEKALIRAASSRASGVPVRFSGSGSMTSFAFTISSAAAALEAEHPATYYCQQSRDDPAARASAAFGGGTRVEIAPLA</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;recursive-basin~EVQLVEIGPEDKKPGTTLKLSCVPSGVSFHSTNYAVSGVKQSPGQGPEAMGNTYPSSGCDTDYCQKFQVRATITTRRSTSTVYLELNSLKPDDPAVYYCARVSHNTEKTPGSYFHPGDEELWGQGTLVTALS</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;recursive-basin~DIVLTDSPSGLSASTGERPTISKRVSNSLSDFDRSTTLAWFFQARPGRSEKALIRAASSRASGVPVRFSGSGSMTSFAFTISSAAAALEAEHPATYYCQQSRDDPAARASAAFGGGTRVEIAPLA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="47.25">
+      <c r="A7" s="1" t="str">
+        <f>'HA1-docking'!A18</f>
+        <v>free-hearth</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f>'HA1-docking'!C18</f>
+        <v>EVQEVDEGGEVVKPGKSARISCKNSGYGFSSQSYAVSWIREAEGKGLAAMTVISPTGAAGIHRNEKVQGRVTISKDHSSNTVYLEMNSLKSEGTAIYAAARNGQYNFVVVGSYWGYGLFDSWGEGALCTVSS</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>'HA1-docking'!D18</f>
+        <v>ETVLTQSPFTLSVSPGEPITVSCRSPQNLVDSNVYNNINWEYQKKPGQAPPRLIYVNSNGASGAPDELKGSGSGTDFVLTIRRCPKEIKDEEVVVYYCQKSIVSPVEWVVATFGQNTRVEIKKKV</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;free-hearth~EVQEVDEGGEVVKPGKSARISCKNSGYGFSSQSYAVSWIREAEGKGLAAMTVISPTGAAGIHRNEKVQGRVTISKDHSSNTVYLEMNSLKSEGTAIYAAARNGQYNFVVVGSYWGYGLFDSWGEGALCTVSS</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;free-hearth~ETVLTQSPFTLSVSPGEPITVSCRSPQNLVDSNVYNNINWEYQKKPGQAPPRLIYVNSNGASGAPDELKGSGSGTDFVLTIRRCPKEIKDEEVVVYYCQKSIVSPVEWVVATFGQNTRVEIKKKV</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="47.25">
+      <c r="A8" s="1" t="str">
+        <f>'HA1-docking'!A19</f>
+        <v>smoky-latitude</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f>'HA1-docking'!C19</f>
+        <v>EVRLVQSGREVVKVGESLKISCKASEYNFSSTNYYTGWVRKPPGQVRMWISYIYHTTTEGTNYSAVVKPYAGVCYGKSINTVTLHMNSVKASDTAVYYCANTIRYDVYSVSPTWDHDWVDSWGQGTLVTVPQ</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>'HA1-docking'!D19</f>
+        <v>DSQLTQSQSSWSLSVGDFVHGTCKTSQSLSQPDVYSYTHWSGRRHPAQTPKLLIYLASTRGSGVGTHISGSGSGTDYTLTISSFGSTTRAGGFATRFCQQSRADTTRAGRQTDGSGTKVGTKGSR</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;smoky-latitude~EVRLVQSGREVVKVGESLKISCKASEYNFSSTNYYTGWVRKPPGQVRMWISYIYHTTTEGTNYSAVVKPYAGVCYGKSINTVTLHMNSVKASDTAVYYCANTIRYDVYSVSPTWDHDWVDSWGQGTLVTVPQ</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;smoky-latitude~DSQLTQSQSSWSLSVGDFVHGTCKTSQSLSQPDVYSYTHWSGRRHPAQTPKLLIYLASTRGSGVGTHISGSGSGTDYTLTISSFGSTTRAGGFATRFCQQSRADTTRAGRQTDGSGTKVGTKGSR</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5">
+      <c r="A9" s="1" t="str">
+        <f>'HA1-docking'!A20</f>
+        <v>internal-rundown</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>'HA1-docking'!C20</f>
+        <v>QAGLVQSGAELKKTGSSLRVSCKSSWYTYSSSYYAIHIIREAPSKGLEWVSRINSRHGYYTTYAPSIQGRVTFSTDKSTSTIYMPLSSLSSEDTAVYFCAPHASEHYVGSGTSWLHDWAESSGQGTTVTASN</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>'HA1-docking'!D20</f>
+        <v>DIVITQSPLTCSVSLGETTSVSRRTSQNLIDNNKYHYFAWLYQQKPGQAPTLLIYAGSYRASAVSDRPSRSGSGIDYTLTISSKSTIVECDGVAVRYCQRSNSTPTRLAALDFAAGTKPEIKNPS</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;internal-rundown~QAGLVQSGAELKKTGSSLRVSCKSSWYTYSSSYYAIHIIREAPSKGLEWVSRINSRHGYYTTYAPSIQGRVTFSTDKSTSTIYMPLSSLSSEDTAVYFCAPHASEHYVGSGTSWLHDWAESSGQGTTVTASN</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;internal-rundown~DIVITQSPLTCSVSLGETTSVSRRTSQNLIDNNKYHYFAWLYQQKPGQAPTLLIYAGSYRASAVSDRPSRSGSGIDYTLTISSKSTIVECDGVAVRYCQRSNSTPTRLAALDFAAGTKPEIKNPS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.5">
+      <c r="A10" s="1" t="str">
+        <f>'HA1-docking'!A21</f>
+        <v>critical-tin</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f>'HA1-docking'!C21</f>
+        <v>QVFLVQSGAELTNPGASVKVSCKTSGYSFSTTSYGMSWIRRAGGQGLEAIGWISHRSGYRTNASPKFQGRVTINTGASTSTVYTQLRSLKPEDTTVYYSARDGAHSFVAAGSAWGLDWGGYAGEGTIVTVSA</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>'HA1-docking'!D21</f>
+        <v>DIVITTSPMTRSVSVGEAASISCCRSQSCIDGNGYNYMNWIYRQKSGQAPRELIYGASKVATGFPARFSASGSGTDFTLTISYTAVNVEPGGVGSYYCQRARSTPSKRAYQTFGAGTRVEIKLAN</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;critical-tin~QVFLVQSGAELTNPGASVKVSCKTSGYSFSTTSYGMSWIRRAGGQGLEAIGWISHRSGYRTNASPKFQGRVTINTGASTSTVYTQLRSLKPEDTTVYYSARDGAHSFVAAGSAWGLDWGGYAGEGTIVTVSA</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;critical-tin~DIVITTSPMTRSVSVGEAASISCCRSQSCIDGNGYNYMNWIYRQKSGQAPRELIYGASKVATGFPARFSASGSGTDFTLTISYTAVNVEPGGVGSYYCQRARSTPSKRAYQTFGAGTRVEIKLAN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="47.25">
+      <c r="A11" s="1" t="str">
+        <f>'HA1-docking'!A22</f>
+        <v>gilded-stud</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>'HA1-docking'!C22</f>
+        <v>VAQTLQSGPELMQPGASVKISCTDSGYTISSTSYAFSWARGSGGKSLEWVGWIHWHTGVGTQYADSFQGRATSDRDKSKNTASAQFNSARSEHSGVAYGASDRTTTTYGLGRPVVVGWADSWNQGTLATASS</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>'HA1-docking'!D22</f>
+        <v>DLVLTQSPASVSVTPGTSASISCQSSQSQVDSNDYNYANRAYQQMPGQAPTLMIRSASYRPSGVPSRISSSGSGTSASLTISRVNANLQEENEANYRCQTSSVSGNRICSPVFNSGTKLEIKGPP</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;gilded-stud~VAQTLQSGPELMQPGASVKISCTDSGYTISSTSYAFSWARGSGGKSLEWVGWIHWHTGVGTQYADSFQGRATSDRDKSKNTASAQFNSARSEHSGVAYGASDRTTTTYGLGRPVVVGWADSWNQGTLATASS</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;gilded-stud~DLVLTQSPASVSVTPGTSASISCQSSQSQVDSNDYNYANRAYQQMPGQAPTLMIRSASYRPSGVPSRISSSGSGTSASLTISRVNANLQEENEANYRCQTSSVSGNRICSPVFNSGTKLEIKGPP</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="47.25">
+      <c r="A12" s="1" t="str">
+        <f>'HA1-docking'!A23</f>
+        <v>concave-glove</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f>'HA1-docking'!C23</f>
+        <v>EVQLQESGAGLVKTSESGSISCTTSGGGGPSGGYWMSWGRQGPGGGLEWSGRIYGVSGDGTNGRGSLKERGTLSPDTSTNTASLGMSSVTASDTALYYGARGAMGGPVGGGSYGGLNGGDGQGQGTLVTVSS</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>'HA1-docking'!D23</f>
+        <v>DYVLTGSPASASVSPGESPTISCRATQTFVDGDGTKYVAWAAQAKPGQAPKLLISLDSNRPTGVPSRFSGSGSGTDYSLTITGAKNTLQNEDVADYYCQQVRSSPPARGSPSYAALTKLDAKNPS</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;concave-glove~EVQLQESGAGLVKTSESGSISCTTSGGGGPSGGYWMSWGRQGPGGGLEWSGRIYGVSGDGTNGRGSLKERGTLSPDTSTNTASLGMSSVTASDTALYYGARGAMGGPVGGGSYGGLNGGDGQGQGTLVTVSS</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;concave-glove~DYVLTGSPASASVSPGESPTISCRATQTFVDGDGTKYVAWAAQAKPGQAPKLLISLDSNRPTGVPSRFSGSGSGTDYSLTITGAKNTLQNEDVADYYCQQVRSSPPARGSPSYAALTKLDAKNPS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5">
+      <c r="A13" s="1" t="str">
+        <f>'HA1-docking'!A24</f>
+        <v>boolean-burbot</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>'HA1-docking'!C24</f>
+        <v>EVELCESGAEVEKPGSSVKVTCKVTGYAFSSTSYAISKVVQAGNPSLASIGELSPSSGDYTRYNEKVTAKVTLTADKSTNTTYLELTPLTSEGTAIYICTRRARYDRSGVGSDYVGDWQDPAGQGTLATVSS</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>'HA1-docking'!D24</f>
+        <v>ETVLTQSPGTVTVSPGERATMSAKVSISTRMSVSTNYLNWAYEQKPGQAPRLLIHGASNRASGVSARLSGSGSGSLFSRTISSNEDEVEAFQLAIYYCDQNTSDPECLPRDTYGGGTKLEIKEVP</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;boolean-burbot~EVELCESGAEVEKPGSSVKVTCKVTGYAFSSTSYAISKVVQAGNPSLASIGELSPSSGDYTRYNEKVTAKVTLTADKSTNTTYLELTPLTSEGTAIYICTRRARYDRSGVGSDYVGDWQDPAGQGTLATVSS</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;boolean-burbot~ETVLTQSPGTVTVSPGERATMSAKVSISTRMSVSTNYLNWAYEQKPGQAPRLLIHGASNRASGVSARLSGSGSGSLFSRTISSNEDEVEAFQLAIYYCDQNTSDPECLPRDTYGGGTKLEIKEVP</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25">
+      <c r="A14" s="1" t="str">
+        <f>'HA1-docking'!A25</f>
+        <v>magenta-food</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>'HA1-docking'!C25</f>
+        <v>EAQLQESGAELNKTGASAKVSCTHSGYSLSDTSYYINGAKQAPDKGPFALGGLYASSRYGDDTAQSTKSLVHVTRDRTKNTTSLELSSLKAEGTGIYYALGWGSYGKAGLGCSGLDGYFAYWAQSTLVTASS</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>'HA1-docking'!D25</f>
+        <v>EIVLTRSPATVTVSPLQRATVSCRNSNSNVDSDGYSYLHWYYQQKPGQAPKLAIGSASNRVSGVPSRFSGSGSLTDYALTISSDAAALQAGDAADYACGAAANDTPGRGSATFGPGTRVTIKGQL</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;magenta-food~EAQLQESGAELNKTGASAKVSCTHSGYSLSDTSYYINGAKQAPDKGPFALGGLYASSRYGDDTAQSTKSLVHVTRDRTKNTTSLELSSLKAEGTGIYYALGWGSYGKAGLGCSGLDGYFAYWAQSTLVTASS</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;magenta-food~EIVLTRSPATVTVSPLQRATVSCRNSNSNVDSDGYSYLHWYYQQKPGQAPKLAIGSASNRVSGVPSRFSGSGSLTDYALTISSDAAALQAGDAADYACGAAANDTPGRGSATFGPGTRVTIKGQL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5">
+      <c r="A15" s="1" t="str">
+        <f>'HA1-docking'!A26</f>
+        <v>exponential-cymbal</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f>'HA1-docking'!C26</f>
+        <v>EVELVQSGPETVKPDKSVKVSCKTEAYSFSTPSHYVSAARSSTGQGLEWMPGIYASSGYKTDYAEPVQSRVTKTVDKTTTTAYTELSSLTAKDTAVYYIARDGTYDRYAGGHYGHHNWEDYWGQATMATVSH</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>'HA1-docking'!D26</f>
+        <v>EGVMTQSPATLRLSEGERVTISCTYSQNNISINSYNDIGWTYIQKPGQPPETLIYLSSVRATGIQDHFSGSGARTDYALTITRATAAMQPEDLAVYYCQQSNEDPPNGGPTTFGGGSRVEIKGQP</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;exponential-cymbal~EVELVQSGPETVKPDKSVKVSCKTEAYSFSTPSHYVSAARSSTGQGLEWMPGIYASSGYKTDYAEPVQSRVTKTVDKTTTTAYTELSSLTAKDTAVYYIARDGTYDRYAGGHYGHHNWEDYWGQATMATVSH</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;exponential-cymbal~EGVMTQSPATLRLSEGERVTISCTYSQNNISINSYNDIGWTYIQKPGQPPETLIYLSSVRATGIQDHFSGSGARTDYALTITRATAAMQPEDLAVYYCQQSNEDPPNGGPTTFGGGSRVEIKGQP</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="47.25">
+      <c r="A16" s="1" t="str">
+        <f>'HA1-docking'!A27</f>
+        <v>soft-spook</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f>'HA1-docking'!C27</f>
+        <v>QAERVRSGEELKQPADSVKISCKTSGNTFSSSHGEMNWVKHAPCQGREWLGYTLARSGYGTHYSPKFVGRTTITAGKTSSTTKMQLSSLMSEGSAVYRCARVSTTSCNGLPSYYPHGGADVWGQGTTVTVSS</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>'HA1-docking'!D27</f>
+        <v>ESVITQSPSSQPASPGELLTISCQASPINIVNKSYNHIACEYQQMPGQVSKLLTAGASIRPSVVPSRHSGSSSGTLYTLTISFIASILCSEDFAVYVCQNFCSLKACWGSVAGGGETKVEIKGQL</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;soft-spook~QAERVRSGEELKQPADSVKISCKTSGNTFSSSHGEMNWVKHAPCQGREWLGYTLARSGYGTHYSPKFVGRTTITAGKTSSTTKMQLSSLMSEGSAVYRCARVSTTSCNGLPSYYPHGGADVWGQGTTVTVSS</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;soft-spook~ESVITQSPSSQPASPGELLTISCQASPINIVNKSYNHIACEYQQMPGQVSKLLTAGASIRPSVVPSRHSGSSSGTLYTLTISFIASILCSEDFAVYVCQNFCSLKACWGSVAGGGETKVEIKGQL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5">
+      <c r="A17" s="1" t="str">
+        <f>'HA1-docking'!A28</f>
+        <v>creative-halftone</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f>'HA1-docking'!C28</f>
+        <v>EAQLVFSGAELTQPGNSLAISAKSSEDSIYSVNYVVSWVREAPGQGHLIMGGIHPVPNTGTKYGQVFQGRVTITADNSTNTAYVKSTSFPSDDTAVYYCTRHTFCGGVNLGSGYLQTAFDYWGQGTAVIVSS</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>'HA1-docking'!D28</f>
+        <v>GIVMTQSPATLSASPGETATISCKGSNSISDNAGPNYLAWVYQQKPAPPPKLLIYSASNRANGDPEGFSGSGSAPGVSLTSSSVPKIVEEGDAAARYCQQTNVVPAKWETKTFVPGIKLEIAGQG</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;creative-halftone~EAQLVFSGAELTQPGNSLAISAKSSEDSIYSVNYVVSWVREAPGQGHLIMGGIHPVPNTGTKYGQVFQGRVTITADNSTNTAYVKSTSFPSDDTAVYYCTRHTFCGGVNLGSGYLQTAFDYWGQGTAVIVSS</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;creative-halftone~GIVMTQSPATLSASPGETATISCKGSNSISDNAGPNYLAWVYQQKPAPPPKLLIYSASNRANGDPEGFSGSGSAPGVSLTSSSVPKIVEEGDAAARYCQQTNVVPAKWETKTFVPGIKLEIAGQG</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="47.25">
+      <c r="A18" s="1" t="str">
+        <f>'HA1-docking'!A29</f>
+        <v>brilliant-charge</v>
+      </c>
+      <c r="B18" s="6" t="str">
+        <f>'HA1-docking'!C29</f>
+        <v>TVQLRQSGSEAKRPVESLKVSAKASSVSFSSGAYYASDIRQAPGNTLEWMGAANAANSNDTAYNQSFQGRVTINRDKTITTAYLQLNNLTAEDTDCFYCATDASCDFITNGPYYFNDWADTWGQGTMVVVFS</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f>'HA1-docking'!D29</f>
+        <v>EIVTTQSGSTMSVPLGEHATISCRGSESPVSSYESNLGAWSYQQKPAKAPKRLIYRYSNRPSGVPSRFSGSFSGTDVTLDISGWGSSLQSEDVAIRYAQQFSNLPSTFGLTTFGQGTKVVIKDCS</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;brilliant-charge~TVQLRQSGSEAKRPVESLKVSAKASSVSFSSGAYYASDIRQAPGNTLEWMGAANAANSNDTAYNQSFQGRVTINRDKTITTAYLQLNNLTAEDTDCFYCATDASCDFITNGPYYFNDWADTWGQGTMVVVFS</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;brilliant-charge~EIVTTQSGSTMSVPLGEHATISCRGSESPVSSYESNLGAWSYQQKPAKAPKRLIYRYSNRPSGVPSRFSGSFSGTDVTLDISGWGSSLQSEDVAIRYAQQFSNLPSTFGLTTFGQGTKVVIKDCS</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="47.25">
+      <c r="A19" s="1" t="str">
+        <f>'HA1-docking'!A30</f>
+        <v>strong-bear</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <f>'HA1-docking'!C30</f>
+        <v>EVQRQQSGAEVTKPGGSLKVSCKTSGYTFSSTTAAVSWVKQPHGTGLEWTGWLYHESGDGTNYAESVRGRVTVSYGKSTSTASLQMSSLRSEGTHVYYSARPGTGDWWGVGWGWGGNWFDSWAQGTTVTGSS</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f>'HA1-docking'!D30</f>
+        <v>EAPLTQSGLSLSASSGNRATHTCRTSQAKVQNSIYIYIHWGYQQKPAKSPQLLIYGASSRGTGVPSRFSGSGSGTDYTLTISSNSLTLQPEDYATYFCQQSNVSPNNYESQTHEQGTKEEIQDQT</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;strong-bear~EVQRQQSGAEVTKPGGSLKVSCKTSGYTFSSTTAAVSWVKQPHGTGLEWTGWLYHESGDGTNYAESVRGRVTVSYGKSTSTASLQMSSLRSEGTHVYYSARPGTGDWWGVGWGWGGNWFDSWAQGTTVTGSS</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;strong-bear~EAPLTQSGLSLSASSGNRATHTCRTSQAKVQNSIYIYIHWGYQQKPAKSPQLLIYGASSRGTGVPSRFSGSGSGTDYTLTISSNSLTLQPEDYATYFCQQSNVSPNNYESQTHEQGTKEEIQDQT</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.5">
+      <c r="A20" s="1" t="str">
+        <f>'HA1-docking'!A31</f>
+        <v>minty-cylinder</v>
+      </c>
+      <c r="B20" s="6" t="str">
+        <f>'HA1-docking'!C31</f>
+        <v>QVGFVEWAGGVKIPSASKKLSCKASVGSVSSTNYGISAVRQAGAEGLKAVGWISGMGGTYTDYSESLKGVVTISAAKSTTTTFIELSSLRPSSTTVRYCAPPASQDRVGSGSPGGPGWFKPWGEGTLITVSS</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f>'HA1-docking'!D31</f>
+        <v>DLEMTQSPLSLAVSLGESISIPCRTSQSLVDSDKYNFPDLLYAQKPGISPRLLIYTGSSRATGSPDRISASGSGTDFTLTITKQGDGVEAERIATYYCQQPRNTPRRINSQAFAQSTKLEKKAKA</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;minty-cylinder~QVGFVEWAGGVKIPSASKKLSCKASVGSVSSTNYGISAVRQAGAEGLKAVGWISGMGGTYTDYSESLKGVVTISAAKSTTTTFIELSSLRPSSTTVRYCAPPASQDRVGSGSPGGPGWFKPWGEGTLITVSS</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;minty-cylinder~DLEMTQSPLSLAVSLGESISIPCRTSQSLVDSDKYNFPDLLYAQKPGISPRLLIYTGSSRATGSPDRISASGSGTDFTLTITKQGDGVEAERIATYYCQQPRNTPRRINSQAFAQSTKLEKKAKA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="47.25">
+      <c r="A21" s="1" t="str">
+        <f>'HA1-docking'!A32</f>
+        <v>bitter-folder</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <f>'HA1-docking'!C32</f>
+        <v>EVRLMESGAVVKQPGQSLKVSAKDSGYAFRNTSYSISWPRGAPGQGLEWMGYIYPNSGDGTNRSQSVQGLVTISTNKSISTASLQLSSLKAEDTPVYATARHDGYHWFAYTCHWMHGAADHWGQITLVTESS</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f>'HA1-docking'!D32</f>
+        <v>ETVLTQSAATLSVTPGEGASLSCKALQSLVHNNGYNFIAAFYNQKPGQSPKRLIRGGANVGSGIPSRYNASGSGTDTSQTITSDHSALQSEGVQVYYCEQYTTTPKSPTSKTFPGGTKVEILPQV</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;bitter-folder~EVRLMESGAVVKQPGQSLKVSAKDSGYAFRNTSYSISWPRGAPGQGLEWMGYIYPNSGDGTNRSQSVQGLVTISTNKSISTASLQLSSLKAEDTPVYATARHDGYHWFAYTCHWMHGAADHWGQITLVTESS</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;bitter-folder~ETVLTQSAATLSVTPGEGASLSCKALQSLVHNNGYNFIAAFYNQKPGQSPKRLIRGGANVGSGIPSRYNASGSGTDTSQTITSDHSALQSEGVQVYYCEQYTTTPKSPTSKTFPGGTKVEILPQV</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="47.25">
+      <c r="A22" s="1" t="str">
+        <f>'HA1-docking'!A33</f>
+        <v>contemporary-wine</v>
+      </c>
+      <c r="B22" s="6" t="str">
+        <f>'HA1-docking'!C33</f>
+        <v>KVERTQRGAEVKKPDKSLKISCAASGYSASDTSHYINWVQQAPGKALEWIGIIYPSSGDRTKYAEAFQGRVTITRDGSKNTAYARCNSVTPEGTAVRYCARHGSQTRFAIGSYWPVDQEGFWRQGTFVTVCS</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>'HA1-docking'!D33</f>
+        <v>GIVLTQSPPSLSAPVGESATASARGSQSEVDADGYNYLQADYQQKPGQAGQLLIYGVSNRESDVPARLSNAGAGTGYTTTISSAAVWIQSADFGVYFCQQANNTPSGRVSTRFAGGAATLPKGKT</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;contemporary-wine~KVERTQRGAEVKKPDKSLKISCAASGYSASDTSHYINWVQQAPGKALEWIGIIYPSSGDRTKYAEAFQGRVTITRDGSKNTAYARCNSVTPEGTAVRYCARHGSQTRFAIGSYWPVDQEGFWRQGTFVTVCS</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;contemporary-wine~GIVLTQSPPSLSAPVGESATASARGSQSEVDADGYNYLQADYQQKPGQAGQLLIYGVSNRESDVPARLSNAGAGTGYTTTISSAAVWIQSADFGVYFCQQANNTPSGRVSTRFAGGAATLPKGKT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="47.25">
+      <c r="A23" s="1" t="str">
+        <f>'HA1-docking'!A34</f>
+        <v>quadratic-format</v>
+      </c>
+      <c r="B23" s="6" t="str">
+        <f>'HA1-docking'!C34</f>
+        <v>EVDTTQSLASAKMLGESVRISCKASGYTFTKPYYTYQWVKQTKAEILYWVGVTDPANSDVINYQPKEQGRVTLGVRKSTSTNWMRRRSLRSEDTNVYYCRRVRTYHYVNNGGGWVDNWFHNFGEGTMVTVSS</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f>'HA1-docking'!D34</f>
+        <v>EIVLTQSPASIALSTGERATISCRANHPFIHSDGSNYLDWVRQQKPGQSPTRHIYGASYHETDIPDWFSGSGTGTDFTLTIRRSTSVVEAEDTGVYYCQQFSVSPPDWEASNYGDGTRVEIPGVH</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;quadratic-format~EVDTTQSLASAKMLGESVRISCKASGYTFTKPYYTYQWVKQTKAEILYWVGVTDPANSDVINYQPKEQGRVTLGVRKSTSTNWMRRRSLRSEDTNVYYCRRVRTYHYVNNGGGWVDNWFHNFGEGTMVTVSS</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;quadratic-format~EIVLTQSPASIALSTGERATISCRANHPFIHSDGSNYLDWVRQQKPGQSPTRHIYGASYHETDIPDWFSGSGTGTDFTLTIRRSTSVVEAEDTGVYYCQQFSVSPPDWEASNYGDGTRVEIPGVH</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25">
+      <c r="A24" s="1" t="str">
+        <f>'HA1-docking'!A35</f>
+        <v>avocado-bumper</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f>'HA1-docking'!C35</f>
+        <v>EAERVESGAEVKKPGASTKISCKAAGYSFSSTSYWMHWVRQMPGEGLEWMGRIYPSKSCGSNRSMKCQGRVTLSTDTSTNTASLQLRSLTPSDTATYRAARQAFHGWVGIGSTWPDDWADVWAQMTLVTVSS</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>'HA1-docking'!D35</f>
+        <v>EIVNTQSPGTLSVSPGERATITCKASESTIAGNSYPYIGVNYLKKPGQAPKFLIYSASNRISGIPSKFNESWSGHDFALTISNPPQIIQSFDFADYYCQHINSSPPRYQSLTFGAETKVEIKTQP</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;avocado-bumper~EAERVESGAEVKKPGASTKISCKAAGYSFSSTSYWMHWVRQMPGEGLEWMGRIYPSKSCGSNRSMKCQGRVTLSTDTSTNTASLQLRSLTPSDTATYRAARQAFHGWVGIGSTWPDDWADVWAQMTLVTVSS</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;avocado-bumper~EIVNTQSPGTLSVSPGERATITCKASESTIAGNSYPYIGVNYLKKPGQAPKFLIYSASNRISGIPSKFNESWSGHDFALTISNPPQIIQSFDFADYYCQHINSSPPRYQSLTFGAETKVEIKTQP</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5">
+      <c r="A25" s="1" t="str">
+        <f>'HA1-docking'!A36</f>
+        <v>cold-electricity</v>
+      </c>
+      <c r="B25" s="6" t="str">
+        <f>'HA1-docking'!C36</f>
+        <v>EVFLLQAGPFLTHTGSSLKVTCKNSGNSFTTGSYTIKAVRQSGGTATFWIGSIIPSNGYGTNTAKTIKGRATISADTSTNTAYMELSSLASEGSALYSCARDAQNSWVGRGWYYGLNGFGMAGQGTTVTVSS</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>'HA1-docking'!D36</f>
+        <v>ESVMTGSEASLSVCPGESATISCRTTQSLIYSDGTNYLHWTTQQKTGQSPKLCIYSHSKRASGVSGRTSGSGFRTDATLTISSHSYSTTAEDVSTYYDQQALNPPAHHGSSTYGQGTRLEIKNAP</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;cold-electricity~EVFLLQAGPFLTHTGSSLKVTCKNSGNSFTTGSYTIKAVRQSGGTATFWIGSIIPSNGYGTNTAKTIKGRATISADTSTNTAYMELSSLASEGSALYSCARDAQNSWVGRGWYYGLNGFGMAGQGTTVTVSS</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;cold-electricity~ESVMTGSEASLSVCPGESATISCRTTQSLIYSDGTNYLHWTTQQKTGQSPKLCIYSHSKRASGVSGRTSGSGFRTDATLTISSHSYSTTAEDVSTYYDQQALNPPAHHGSSTYGQGTRLEIKNAP</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5">
+      <c r="A26" s="1" t="str">
+        <f>'HA1-docking'!A37</f>
+        <v>flat-gutter</v>
+      </c>
+      <c r="B26" s="6" t="str">
+        <f>'HA1-docking'!C37</f>
+        <v>EVDLNQSGAETKITGQSIKVSCKTSGVSFPEADYATPLTRQHHGKALEWMGNTNYGTGYTTNYGPKIQVRVTLNSGKSTSTAYLPKKSLKAEYTTIYYCVRDGHQTNVESTGQGQIGYFNYWGEGTLVTVSN</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f>'HA1-docking'!D37</f>
+        <v>GIAMTGSGSTISVSPGERATISCRASQSTVDKSVSNYVHWVFQQLPATSTKRIINGSSNRESDVPSRTSGSKSGHDPTLTISRRSSDLEPEDVAVYYCQSYTSTPSELVSQTYGQATKAEITGQD</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;flat-gutter~EVDLNQSGAETKITGQSIKVSCKTSGVSFPEADYATPLTRQHHGKALEWMGNTNYGTGYTTNYGPKIQVRVTLNSGKSTSTAYLPKKSLKAEYTTIYYCVRDGHQTNVESTGQGQIGYFNYWGEGTLVTVSN</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;flat-gutter~GIAMTGSGSTISVSPGERATISCRASQSTVDKSVSNYVHWVFQQLPATSTKRIINGSSNRESDVPSRTSGSKSGHDPTLTISRRSSDLEPEDVAVYYCQSYTSTPSELVSQTYGQATKAEITGQD</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="47.25">
+      <c r="A27" s="1" t="str">
+        <f>'HA1-docking'!A38</f>
+        <v>symmetric-pad</v>
+      </c>
+      <c r="B27" s="6" t="str">
+        <f>'HA1-docking'!C38</f>
+        <v>QAQLVQSGAGVTKGAASVKLSCKTSGYSISSYSYGVSAVRQAPGQGPEWVGGISPMSGPYTHYAQSVQARLTLTVDKSTSTAYLELTASNPEDTATYYAARNARGTRVGVGPHYLLDWHDYWGAGTLVTVST</v>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f>'HA1-docking'!D38</f>
+        <v>DIVMHQSPTTLSVNVYEPATISCKTSNTLANGDGSNYVVWYYQQKAGQSPKRLIAGISTRATGVEHKFSGNASGTDITLTISSTHTAVEPEDFAVHYDQQYRNWLKKLISPTFGGGTKGNRPSKV</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;symmetric-pad~QAQLVQSGAGVTKGAASVKLSCKTSGYSISSYSYGVSAVRQAPGQGPEWVGGISPMSGPYTHYAQSVQARLTLTVDKSTSTAYLELTASNPEDTATYYAARNARGTRVGVGPHYLLDWHDYWGAGTLVTVST</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;symmetric-pad~DIVMHQSPTTLSVNVYEPATISCKTSNTLANGDGSNYVVWYYQQKAGQSPKRLIAGISTRATGVEHKFSGNASGTDITLTISSTHTAVEPEDFAVHYDQQYRNWLKKLISPTFGGGTKGNRPSKV</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="47.25">
+      <c r="A28" s="1" t="str">
+        <f>'HA1-docking'!A39</f>
+        <v>antique-structure</v>
+      </c>
+      <c r="B28" s="6" t="str">
+        <f>'HA1-docking'!C39</f>
+        <v>QAQLEQSGVEVVKPGSSVKVSSKTSGYWASTTSHWISWVRRSPAKGFEWMGGIQPGSGNYTNFNEKYQGRATITAGKSSNTAYTQLTSLTAEGTTTYYCARNNTHDTYGSGSSYPLDYFDVWGQATTITVSS</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f>'HA1-docking'!D39</f>
+        <v>EVVLTQSPGTTSLPPGERATLSIHASHHLVDSDGSTYVSWVYQEKSGQATRRTIYGASNRASGIVGRFSGSGSATGYTLTIRRADVSVESEQSAVFFAQQFSSTPQKWGSVTFGHVTRLEIKGSP</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;antique-structure~QAQLEQSGVEVVKPGSSVKVSSKTSGYWASTTSHWISWVRRSPAKGFEWMGGIQPGSGNYTNFNEKYQGRATITAGKSSNTAYTQLTSLTAEGTTTYYCARNNTHDTYGSGSSYPLDYFDVWGQATTITVSS</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;antique-structure~EVVLTQSPGTTSLPPGERATLSIHASHHLVDSDGSTYVSWVYQEKSGQATRRTIYGASNRASGIVGRFSGSGSATGYTLTIRRADVSVESEQSAVFFAQQFSSTPQKWGSVTFGHVTRLEIKGSP</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="47.25">
+      <c r="A29" s="1" t="str">
+        <f>'HA1-docking'!A40</f>
+        <v>cream-callback</v>
+      </c>
+      <c r="B29" s="6" t="str">
+        <f>'HA1-docking'!C40</f>
+        <v>GNFLVESGAGATKPAPSLSVSCKVSGESFSSGSYGISWARQAGGPGLEWMGGIIPSSGEFINRGPSFQGKATITAGRSTTTAFFELSSLTSEDTAVYYCMRPRRFDFYGLTSYQPLGWHGYWGQGTLATVSS</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f>'HA1-docking'!D40</f>
+        <v>DAVMTQSPPTLPVSVGESASISKKAAESVVSSDAYNYLNWAYEENPGQSPEMLIWAGTNRESGIPDRFSGSGSGTGFTLSISRVRSATEAGAVAVTYAMGSIAHPKPWGTKTFGQGTKVEIKGQD</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;cream-callback~GNFLVESGAGATKPAPSLSVSCKVSGESFSSGSYGISWARQAGGPGLEWMGGIIPSSGEFINRGPSFQGKATITAGRSTTTAFFELSSLTSEDTAVYYCMRPRRFDFYGLTSYQPLGWHGYWGQGTLATVSS</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;cream-callback~DAVMTQSPPTLPVSVGESASISKKAAESVVSSDAYNYLNWAYEENPGQSPEMLIWAGTNRESGIPDRFSGSGSGTGFTLSISRVRSATEAGAVAVTYAMGSIAHPKPWGTKTFGQGTKVEIKGQD</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="47.25">
+      <c r="A30" s="1" t="str">
+        <f>'HA1-docking'!A41</f>
+        <v>inventive-amarone</v>
+      </c>
+      <c r="B30" s="6" t="str">
+        <f>'HA1-docking'!C41</f>
+        <v>QAQIVQSGPGLVKTGTSVKVSAKTTGYNFSNKNYIVSWVREVPGRGLEAMGRIYGRDGDYTDRAEKVVGKVTISTDKDKNTWYLQMSSLKAEDTAVSYAARNDLVCYGGGGRYGLHNAYDNAGQGTLVTVSS</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>'HA1-docking'!D41</f>
+        <v>DIVTTQTSGKLSISLGERVTINYKTSQSYVDGSGYNYTHHAYEQKDGKYPKLLIYGGSNRESGVPDRDSGSNAGTDVTLTISEVVMVVQSDDKINRYCSQSTDYTLYLDAVTFLQGTTYEIKYNP</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;inventive-amarone~QAQIVQSGPGLVKTGTSVKVSAKTTGYNFSNKNYIVSWVREVPGRGLEAMGRIYGRDGDYTDRAEKVVGKVTISTDKDKNTWYLQMSSLKAEDTAVSYAARNDLVCYGGGGRYGLHNAYDNAGQGTLVTVSS</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;inventive-amarone~DIVTTQTSGKLSISLGERVTINYKTSQSYVDGSGYNYTHHAYEQKDGKYPKLLIYGGSNRESGVPDRDSGSNAGTDVTLTISEVVMVVQSDDKINRYCSQSTDYTLYLDAVTFLQGTTYEIKYNP</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="47.25">
+      <c r="A31" s="1" t="str">
+        <f>'HA1-docking'!A42</f>
+        <v>messy-discriminator</v>
+      </c>
+      <c r="B31" s="6" t="str">
+        <f>'HA1-docking'!C42</f>
+        <v>EVRLVQAGPEVKQQKESAKLSCKTFGLSVSSTHYGNNWAHGAPGNGPEAIGHILPMNGYGIHYCPKVQGNSTISTDKTTSTAYMDLSSATSEDTAIYYCTVPATKLTYGTACGWGLSYFDPWAQGTLATVSS</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f>'HA1-docking'!D42</f>
+        <v>EIVITQSPITLPVSPGEPASITCRASQSVLHSDGYNYLDWGVKQKPGQAPQHLIALASRRASGVGARFSGSGSGHDFTLKIRAYNAIVQSEGVGVYYCQAANQTPQGFGQQTFGGGTKLEIKNDP</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;messy-discriminator~EVRLVQAGPEVKQQKESAKLSCKTFGLSVSSTHYGNNWAHGAPGNGPEAIGHILPMNGYGIHYCPKVQGNSTISTDKTTSTAYMDLSSATSEDTAIYYCTVPATKLTYGTACGWGLSYFDPWAQGTLATVSS</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;messy-discriminator~EIVITQSPITLPVSPGEPASITCRASQSVLHSDGYNYLDWGVKQKPGQAPQHLIALASRRASGVGARFSGSGSGHDFTLKIRAYNAIVQSEGVGVYYCQAANQTPQGFGQQTFGGGTKLEIKNDP</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>